--- a/result.xlsx
+++ b/result.xlsx
@@ -7,140 +7,521 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="page-1-table-1" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
-  <si>
-    <t>Cycle 
-Name</t>
-  </si>
-  <si>
-    <t>2012_2</t>
-  </si>
-  <si>
-    <t>2145_1</t>
-  </si>
-  <si>
-    <t>4234_1</t>
-  </si>
-  <si>
-    <t>2032_2</t>
-  </si>
-  <si>
-    <t>4171_1</t>
-  </si>
-  <si>
-    <t>KI 
-(1/km)</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>Distance 
-(mi)</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>58.7</t>
-  </si>
-  <si>
-    <t>57.8</t>
-  </si>
-  <si>
-    <t>173.9</t>
-  </si>
-  <si>
-    <t>Percent Fuel Savings</t>
-  </si>
-  <si>
-    <t>Improved 
-Speed</t>
-  </si>
-  <si>
-    <t>5.9%</t>
-  </si>
-  <si>
-    <t>2.4%</t>
-  </si>
-  <si>
-    <t>8.5%</t>
-  </si>
-  <si>
-    <t>21.7%</t>
-  </si>
-  <si>
-    <t>58.1%</t>
-  </si>
-  <si>
-    <t>Decreased 
-Accel</t>
-  </si>
-  <si>
-    <t>9.5%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>1.3%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>1.6%</t>
-  </si>
-  <si>
-    <t>Eliminate 
-Stops</t>
-  </si>
-  <si>
-    <t>29.2%</t>
-  </si>
-  <si>
-    <t>2.7%</t>
-  </si>
-  <si>
-    <t>2.1%</t>
-  </si>
-  <si>
-    <t>Decreased 
-Idle</t>
-  </si>
-  <si>
-    <t>17.4%</t>
-  </si>
-  <si>
-    <t>3.3%</t>
-  </si>
-  <si>
-    <t>1.2%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="143">
+  <si>
+    <t>SCHOOLING STATUS
+Children currently attending school (Age 6-17 years) (%)
+Person
+Male
+State / District</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1
+2</t>
+  </si>
+  <si>
+    <t>Assam
+87.1</t>
+  </si>
+  <si>
+    <t>Barpeta 
+88.8</t>
+  </si>
+  <si>
+    <t>Bongaigaon 
+87.2</t>
+  </si>
+  <si>
+    <t>Cachar 
+85.3</t>
+  </si>
+  <si>
+    <t>Darrang 
+83.2</t>
+  </si>
+  <si>
+    <t>Dhemaji 
+92.9</t>
+  </si>
+  <si>
+    <t>Dhubri 
+87.3</t>
+  </si>
+  <si>
+    <t>Dibrugarh 
+85.5</t>
+  </si>
+  <si>
+    <t>Goalpara 
+87.2</t>
+  </si>
+  <si>
+    <t>Golaghat 
+86.5</t>
+  </si>
+  <si>
+    <t>Hailakandi 
+86.7</t>
+  </si>
+  <si>
+    <t>Jorhat 
+86.8</t>
+  </si>
+  <si>
+    <t>Kamrup 
+92.8</t>
+  </si>
+  <si>
+    <t>Karbi Anglong 
+92.3</t>
+  </si>
+  <si>
+    <t>Karimganj 
+83.3</t>
+  </si>
+  <si>
+    <t>Kokrajhar 
+87.4</t>
+  </si>
+  <si>
+    <t>Lakhimpur 
+88.5</t>
+  </si>
+  <si>
+    <t>Marigaon 
+87.4</t>
+  </si>
+  <si>
+    <t>Nagaon 
+87.0</t>
+  </si>
+  <si>
+    <t>Nalbari 
+90.9</t>
+  </si>
+  <si>
+    <t>North Cachar Hills 
+95.6</t>
+  </si>
+  <si>
+    <t>Sibsagar 
+86.2</t>
+  </si>
+  <si>
+    <t>Sonitpur 
+84.0</t>
+  </si>
+  <si>
+    <t>Tinsukia 
+79.6</t>
+  </si>
+  <si>
+    <t>Rural
+Urban
+Total
+Rural
+Urban</t>
+  </si>
+  <si>
+    <t>3
+4
+5
+6
+7</t>
+  </si>
+  <si>
+    <t>86.3</t>
+  </si>
+  <si>
+    <t>88.6</t>
+  </si>
+  <si>
+    <t>86.4</t>
+  </si>
+  <si>
+    <t>84.9</t>
+  </si>
+  <si>
+    <t>82.8</t>
+  </si>
+  <si>
+    <t>92.8</t>
+  </si>
+  <si>
+    <t>86.9</t>
+  </si>
+  <si>
+    <t>83.9</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>85.9</t>
+  </si>
+  <si>
+    <t>85.7</t>
+  </si>
+  <si>
+    <t>91.4</t>
+  </si>
+  <si>
+    <t>91.7</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>86.8</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>87.3</t>
+  </si>
+  <si>
+    <t>90.8</t>
+  </si>
+  <si>
+    <t>94.8</t>
+  </si>
+  <si>
+    <t>85.6</t>
+  </si>
+  <si>
+    <t>83.1</t>
+  </si>
+  <si>
+    <t>77.8</t>
+  </si>
+  <si>
+    <t>92.3</t>
+  </si>
+  <si>
+    <t>91.1</t>
+  </si>
+  <si>
+    <t>93.8</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>94.1</t>
+  </si>
+  <si>
+    <t>91.5</t>
+  </si>
+  <si>
+    <t>90.3</t>
+  </si>
+  <si>
+    <t>90.6</t>
+  </si>
+  <si>
+    <t>94.6</t>
+  </si>
+  <si>
+    <t>96.3</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>84.4</t>
+  </si>
+  <si>
+    <t>81.5</t>
+  </si>
+  <si>
+    <t>92.5</t>
+  </si>
+  <si>
+    <t>86.2</t>
+  </si>
+  <si>
+    <t>82.9</t>
+  </si>
+  <si>
+    <t>87.1</t>
+  </si>
+  <si>
+    <t>92.2</t>
+  </si>
+  <si>
+    <t>82.7</t>
+  </si>
+  <si>
+    <t>87.5</t>
+  </si>
+  <si>
+    <t>88.8</t>
+  </si>
+  <si>
+    <t>84.1</t>
+  </si>
+  <si>
+    <t>84.5</t>
+  </si>
+  <si>
+    <t>95.5</t>
+  </si>
+  <si>
+    <t>80.5</t>
+  </si>
+  <si>
+    <t>85.1</t>
+  </si>
+  <si>
+    <t>85.3</t>
+  </si>
+  <si>
+    <t>84.6</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>92.4</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>84.7</t>
+  </si>
+  <si>
+    <t>82.5</t>
+  </si>
+  <si>
+    <t>86.6</t>
+  </si>
+  <si>
+    <t>89.7</t>
+  </si>
+  <si>
+    <t>91.6</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>88.5</t>
+  </si>
+  <si>
+    <t>90.1</t>
+  </si>
+  <si>
+    <t>94.9</t>
+  </si>
+  <si>
+    <t>85.4</t>
+  </si>
+  <si>
+    <t>83.3</t>
+  </si>
+  <si>
+    <t>79.2</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>93.5</t>
+  </si>
+  <si>
+    <t>93.3</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>89.6</t>
+  </si>
+  <si>
+    <t>94.2</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>96.1</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Total
+Rural
+Urban</t>
+  </si>
+  <si>
+    <t>8
+9
+10</t>
+  </si>
+  <si>
+    <t>88.3</t>
+  </si>
+  <si>
+    <t>89.1</t>
+  </si>
+  <si>
+    <t>93.4</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>86.5</t>
+  </si>
+  <si>
+    <t>93.9</t>
+  </si>
+  <si>
+    <t>87.2</t>
+  </si>
+  <si>
+    <t>90.9</t>
+  </si>
+  <si>
+    <t>89.5</t>
+  </si>
+  <si>
+    <t>95.7</t>
+  </si>
+  <si>
+    <t>83.8</t>
+  </si>
+  <si>
+    <t>78.7</t>
+  </si>
+  <si>
+    <t>88.4</t>
+  </si>
+  <si>
+    <t>90.2</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>91.9</t>
+  </si>
+  <si>
+    <t>85.2</t>
+  </si>
+  <si>
+    <t>93.1</t>
+  </si>
+  <si>
+    <t>91.8</t>
+  </si>
+  <si>
+    <t>87.4</t>
+  </si>
+  <si>
+    <t>88.9</t>
+  </si>
+  <si>
+    <t>94.7</t>
+  </si>
+  <si>
+    <t>85.8</t>
+  </si>
+  <si>
+    <t>76.4</t>
+  </si>
+  <si>
+    <t>93.7</t>
+  </si>
+  <si>
+    <t>92.1</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>92.9</t>
+  </si>
+  <si>
+    <t>96.6</t>
+  </si>
+  <si>
+    <t>89.2</t>
+  </si>
+  <si>
+    <t>Urban
+7</t>
+  </si>
+  <si>
+    <t>Female
+Total
+Rural
+Urban
+8
+9
+10
+88.3</t>
+  </si>
+  <si>
+    <t>Annual Health Survey 2010-11</t>
+  </si>
+  <si>
+    <t>SCHOOLING STATUS
+Children currently attending school (Age 6-17 years) (%)
+Person
+Male
+State / District
+Total</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>91.4
+89.0
+93.5
+85.3
+-
+93.3
+89.0
+91.4
+87.3
+91.0
+-
+89.6
+94.2
+94.6
+-
+-
+-
+90.4
+88.0
+-
+96.1
+92.3
+91.4
+87.0</t>
   </si>
 </sst>
 </file>
@@ -498,13 +879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -526,148 +907,1514 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
